--- a/codelist_generator/codelists.xlsx
+++ b/codelist_generator/codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Verkeersmetingen\codelist_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE116D1-AE17-4E97-8EA9-FD1B4A454890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599932C6-9C64-4342-B911-E7F49A1B1100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{E3303C72-65BC-460E-B098-279069D7A6E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E3303C72-65BC-460E-B098-279069D7A6E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Subklassen modaliteiten" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="210">
   <si>
     <t>Klasse</t>
   </si>
@@ -626,6 +626,54 @@
   </si>
   <si>
     <t>conceptscheme meettechnieken</t>
+  </si>
+  <si>
+    <t>Manuele_telling</t>
+  </si>
+  <si>
+    <t>Inductieve_lus</t>
+  </si>
+  <si>
+    <t>VkmVerkeersmodaliteiten_subklassen</t>
+  </si>
+  <si>
+    <t>conceptscheme verkeersmodaliteiten_subklassen</t>
+  </si>
+  <si>
+    <t>Codelijst voor verkeersmodaliteiten_subklassen met de onderverdeling van de subklassen van vervoerstypes</t>
+  </si>
+  <si>
+    <t>subklassevan</t>
+  </si>
+  <si>
+    <t>voetganger</t>
+  </si>
+  <si>
+    <t>fietser</t>
+  </si>
+  <si>
+    <t>klein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium </t>
+  </si>
+  <si>
+    <t>groot</t>
+  </si>
+  <si>
+    <t>Andere_voetganger</t>
+  </si>
+  <si>
+    <t>Andere_fietser</t>
+  </si>
+  <si>
+    <t>Andere_groot</t>
+  </si>
+  <si>
+    <t>Andere_medium</t>
+  </si>
+  <si>
+    <t>andere_klein</t>
   </si>
 </sst>
 </file>
@@ -976,23 +1024,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD49523-3A2F-4474-A1CC-F9530B41E984}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="157.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="39.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,465 +1056,570 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
+      <c r="E29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1474,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3FE942-068D-4A6B-B7FB-3798E99E027B}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1588,7 +1741,7 @@
     </row>
     <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
@@ -1622,7 +1775,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
@@ -2949,12 +3102,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fe43d49-4f67-4486-9d33-01c03a937144">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3212,20 +3367,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fe43d49-4f67-4486-9d33-01c03a937144">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767BCD5D-D9CA-4F41-921C-9506A605E799}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9183F7A-64EE-48EC-89DD-9A50891C3E8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1fe43d49-4f67-4486-9d33-01c03a937144"/>
+    <ds:schemaRef ds:uri="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3251,12 +3407,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9183F7A-64EE-48EC-89DD-9A50891C3E8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767BCD5D-D9CA-4F41-921C-9506A605E799}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1fe43d49-4f67-4486-9d33-01c03a937144"/>
-    <ds:schemaRef ds:uri="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>